--- a/decode.xlsx
+++ b/decode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data\ELEKTR\TFA-temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data\ELEKTR\TFA-30321502-decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>ch1</t>
   </si>
@@ -68,9 +68,6 @@
     <t>pwr3</t>
   </si>
   <si>
-    <t>batt[0]</t>
-  </si>
-  <si>
     <t>pwr4</t>
   </si>
   <si>
@@ -89,7 +86,13 @@
     <t>rng[0]</t>
   </si>
   <si>
-    <t>rng[4]</t>
+    <t>sync button</t>
+  </si>
+  <si>
+    <t>low batt</t>
+  </si>
+  <si>
+    <t>rng[3]</t>
   </si>
 </sst>
 </file>
@@ -408,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +462,11 @@
       <c r="N1" t="s">
         <v>2</v>
       </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22.5</v>
       </c>
@@ -507,7 +513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
@@ -554,7 +560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>10</v>
       </c>
@@ -562,22 +568,25 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>11</v>
       </c>
@@ -594,696 +603,777 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S33" si="0">S15</f>
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <f>O7*S7</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T42" si="1">O8*S8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" ref="U10" si="2">"0x"&amp;DEC2HEX(SUM(T3:T10),2)</f>
+        <v>0x09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>SUM(X15:X20)</f>
+        <v>7</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ref="Y14:AM14" si="3">SUM(Y15:Y20)</f>
+        <v>23</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>19</v>
+      <c r="AJ14">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15:X20" si="4">A15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ref="Y15:Y20" si="5">B15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" ref="Z15:Z20" si="6">C15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" ref="AA15:AA20" si="7">D15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ref="AB15:AB20" si="8">E15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" ref="AC15:AC20" si="9">F15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" ref="AD15:AD20" si="10">G15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" ref="AE15:AE20" si="11">H15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" ref="AF15:AF20" si="12">I15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" ref="AG15:AG20" si="13">J15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" ref="AH15:AH20" si="14">K15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" ref="AI15:AM20" si="15">L15*$W15</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f>SUM(T15:T20)</f>
-        <v>7</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ref="U14:AI14" si="0">SUM(U15:U20)</f>
-        <v>23</v>
-      </c>
-      <c r="V14">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>14</v>
-      </c>
-      <c r="T15">
-        <f t="shared" ref="T15:T20" si="1">A15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" ref="U15:U20" si="2">B15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" ref="V15:V20" si="3">C15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" ref="W15:W20" si="4">D15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f t="shared" ref="X15:X20" si="5">E15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" ref="Y15:Y20" si="6">F15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" ref="Z15:Z20" si="7">G15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" ref="AA15:AA20" si="8">H15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" ref="AB15:AB20" si="9">I15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" ref="AC15:AC20" si="10">J15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" ref="AD15:AD20" si="11">K15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f>L15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f>M15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <f>N15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <f>O15*$S15</f>
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <f>P15*$S15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W16">
         <v>16</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="3"/>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="4"/>
+      <c r="Z16">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="X16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z16">
+      <c r="AA16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA16">
+        <v>16</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="AD16">
-        <f t="shared" si="11"/>
+      <c r="AH16">
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="AE16">
-        <f>L16*$S16</f>
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <f>M16*$S16</f>
+      <c r="AI16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="AG16">
-        <f>N16*$S16</f>
+      <c r="AK16">
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="AH16">
-        <f>O16*$S16</f>
+      <c r="AL16">
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="AI16">
-        <f>P16*$S16</f>
+      <c r="AM16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1330,74 +1420,82 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="T17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="W17">
+        <v>8</v>
+      </c>
+      <c r="X17">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="X17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA17">
+      <c r="AB17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE17">
-        <f>L17*$S17</f>
+      <c r="AF17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="AF17">
-        <f>M17*$S17</f>
+      <c r="AJ17">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="AG17">
-        <f>N17*$S17</f>
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <f>O17*$S17</f>
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <f>P17*$S17</f>
+      <c r="AK17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1443,75 +1541,90 @@
       <c r="O18">
         <v>1</v>
       </c>
+      <c r="Q18" t="s">
+        <v>19</v>
+      </c>
       <c r="S18">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="T18">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" ref="U18" si="16">"0x"&amp;DEC2HEX(SUM(T11:T18),2)</f>
+        <v>0x0D</v>
+      </c>
+      <c r="W18">
         <v>4</v>
       </c>
-      <c r="U18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W18">
+      <c r="X18">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD18">
+        <v>4</v>
+      </c>
+      <c r="AE18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE18">
-        <f>L18*$S18</f>
+      <c r="AF18">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AF18">
-        <f>M18*$S18</f>
+      <c r="AG18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="AG18">
-        <f>N18*$S18</f>
+      <c r="AJ18">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="AH18">
-        <f>O18*$S18</f>
+      <c r="AK18">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="AI18">
-        <f>P18*$S18</f>
+      <c r="AL18">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1557,75 +1670,86 @@
       <c r="O19">
         <v>0</v>
       </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
       <c r="S19">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>128</v>
       </c>
       <c r="T19">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AE19">
-        <f>L19*$S19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <f>M19*$S19</f>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <f>N19*$S19</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="AH19">
-        <f>O19*$S19</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AI19">
-        <f>P19*$S19</f>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1675,74 +1799,82 @@
         <v>20</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="T20">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AE20">
-        <f>L20*$S20</f>
-        <v>1</v>
-      </c>
       <c r="AF20">
-        <f>M20*$S20</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AG20">
-        <f>N20*$S20</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AH20">
-        <f>O20*$S20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AI20">
-        <f>P20*$S20</f>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1791,8 +1923,16 @@
       <c r="Q21" t="s">
         <v>3</v>
       </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1841,8 +1981,16 @@
       <c r="Q22" t="s">
         <v>4</v>
       </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1891,72 +2039,80 @@
       <c r="Q23" t="s">
         <v>7</v>
       </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="T23">
-        <f>SUM(T24:T35)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>SUM(X24:X35)</f>
         <v>225</v>
       </c>
-      <c r="U23">
-        <f t="shared" ref="U23:Z23" si="12">SUM(U24:U35)</f>
+      <c r="Y23">
+        <f t="shared" ref="Y23:AD23" si="17">SUM(Y24:Y35)</f>
         <v>225</v>
       </c>
-      <c r="V23">
-        <f t="shared" si="12"/>
+      <c r="Z23">
+        <f t="shared" si="17"/>
         <v>237</v>
       </c>
-      <c r="W23">
-        <f t="shared" si="12"/>
+      <c r="AA23">
+        <f t="shared" si="17"/>
         <v>223</v>
       </c>
-      <c r="X23">
-        <f t="shared" si="12"/>
+      <c r="AB23">
+        <f t="shared" si="17"/>
         <v>1910</v>
       </c>
-      <c r="Y23">
-        <f t="shared" si="12"/>
+      <c r="AC23">
+        <f t="shared" si="17"/>
         <v>1940</v>
       </c>
-      <c r="Z23">
-        <f t="shared" si="12"/>
+      <c r="AD23">
+        <f t="shared" si="17"/>
         <v>1991</v>
       </c>
-      <c r="AA23">
-        <f t="shared" ref="AA23" si="13">SUM(AA24:AA35)</f>
+      <c r="AE23">
+        <f t="shared" ref="AE23" si="18">SUM(AE24:AE35)</f>
         <v>239</v>
       </c>
-      <c r="AB23">
-        <f t="shared" ref="AB23" si="14">SUM(AB24:AB35)</f>
+      <c r="AF23">
+        <f t="shared" ref="AF23" si="19">SUM(AF24:AF35)</f>
         <v>244</v>
       </c>
-      <c r="AC23">
-        <f t="shared" ref="AC23" si="15">SUM(AC24:AC35)</f>
+      <c r="AG23">
+        <f t="shared" ref="AG23" si="20">SUM(AG24:AG35)</f>
         <v>242</v>
       </c>
-      <c r="AD23">
-        <f t="shared" ref="AD23" si="16">SUM(AD24:AD35)</f>
+      <c r="AH23">
+        <f t="shared" ref="AH23" si="21">SUM(AH24:AH35)</f>
         <v>243</v>
       </c>
-      <c r="AE23">
-        <f t="shared" ref="AE23" si="17">SUM(AE24:AE35)</f>
+      <c r="AI23">
+        <f t="shared" ref="AI23" si="22">SUM(AI24:AI35)</f>
         <v>241</v>
       </c>
-      <c r="AF23">
-        <f t="shared" ref="AF23:AI23" si="18">SUM(AF24:AF35)</f>
+      <c r="AJ23">
+        <f t="shared" ref="AJ23:AM23" si="23">SUM(AJ24:AJ35)</f>
         <v>242</v>
       </c>
-      <c r="AG23">
-        <f t="shared" si="18"/>
+      <c r="AK23">
+        <f t="shared" si="23"/>
         <v>242</v>
       </c>
-      <c r="AH23">
-        <f t="shared" si="18"/>
+      <c r="AL23">
+        <f t="shared" si="23"/>
         <v>250</v>
       </c>
-      <c r="AI23">
-        <f t="shared" si="18"/>
+      <c r="AM23">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2003,74 +2159,82 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>1024</v>
       </c>
-      <c r="T24">
-        <f t="shared" ref="T24:T26" si="19">A24*$S24</f>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <f t="shared" ref="U24:U26" si="20">B24*$S24</f>
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <f t="shared" ref="V24:V26" si="21">C24*$S24</f>
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <f t="shared" ref="W24:W26" si="22">D24*$S24</f>
-        <v>0</v>
-      </c>
       <c r="X24">
-        <f t="shared" ref="X24:X26" si="23">E24*$S24</f>
+        <f t="shared" ref="X24:X26" si="24">A24*$W24</f>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ref="Y24:Y26" si="25">B24*$W24</f>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z26" si="26">C24*$W24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24:AA26" si="27">D24*$W24</f>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" ref="AB24:AB26" si="28">E24*$W24</f>
         <v>1024</v>
       </c>
-      <c r="Y24">
-        <f t="shared" ref="Y24:Y26" si="24">F24*$S24</f>
+      <c r="AC24">
+        <f t="shared" ref="AC24:AC26" si="29">F24*$W24</f>
         <v>1024</v>
       </c>
-      <c r="Z24">
-        <f t="shared" ref="Z24:Z26" si="25">G24*$S24</f>
+      <c r="AD24">
+        <f t="shared" ref="AD24:AD26" si="30">G24*$W24</f>
         <v>1024</v>
       </c>
-      <c r="AA24">
-        <f t="shared" ref="AA24:AA42" si="26">H24*$S24</f>
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" ref="AB24:AB42" si="27">I24*$S24</f>
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" ref="AC24:AC42" si="28">J24*$S24</f>
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" ref="AD24:AD42" si="29">K24*$S24</f>
-        <v>0</v>
-      </c>
       <c r="AE24">
-        <f t="shared" ref="AE24:AE42" si="30">L24*$S24</f>
+        <f t="shared" ref="AE24:AE42" si="31">H24*$W24</f>
         <v>0</v>
       </c>
       <c r="AF24">
-        <f>M24*$S24</f>
+        <f t="shared" ref="AF24:AF42" si="32">I24*$W24</f>
         <v>0</v>
       </c>
       <c r="AG24">
-        <f>N24*$S24</f>
+        <f t="shared" ref="AG24:AG42" si="33">J24*$W24</f>
         <v>0</v>
       </c>
       <c r="AH24">
-        <f>O24*$S24</f>
+        <f t="shared" ref="AH24:AH42" si="34">K24*$W24</f>
         <v>0</v>
       </c>
       <c r="AI24">
-        <f>P24*$S24</f>
+        <f t="shared" ref="AI24:AI42" si="35">L24*$W24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" ref="AJ24:AJ42" si="36">M24*$W24</f>
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" ref="AK24:AK42" si="37">N24*$W24</f>
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" ref="AL24:AL42" si="38">O24*$W24</f>
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" ref="AM24:AM42" si="39">P24*$W24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2117,416 +2281,452 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>512</v>
       </c>
-      <c r="T25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
       <c r="X25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="28"/>
         <v>512</v>
       </c>
-      <c r="Y25">
+      <c r="AC25">
+        <f t="shared" si="29"/>
+        <v>512</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="30"/>
+        <v>512</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" ref="U26" si="40">"0x"&amp;DEC2HEX(SUM(T19:T26),2)</f>
+        <v>0x60</v>
+      </c>
+      <c r="W26">
+        <v>256</v>
+      </c>
+      <c r="X26">
         <f t="shared" si="24"/>
-        <v>512</v>
-      </c>
-      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="25"/>
-        <v>512</v>
-      </c>
-      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB25">
+      <c r="AA26">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC25">
+      <c r="AB26">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
+        <v>256</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE25">
+        <v>256</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <f>M25*$S25</f>
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <f>N25*$S25</f>
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <f>O25*$S25</f>
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <f>P25*$S25</f>
+        <v>256</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>256</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="23"/>
-        <v>256</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="24"/>
-        <v>256</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="25"/>
-        <v>256</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <f>M26*$S26</f>
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <f>N26*$S26</f>
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <f>O26*$S26</f>
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <f>P26*$S26</f>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="W27">
+        <v>128</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ref="X27:AD27" si="41">A27*$W27</f>
+        <v>128</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="31"/>
+        <v>128</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="32"/>
+        <v>128</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="33"/>
+        <v>128</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="34"/>
+        <v>128</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="35"/>
+        <v>128</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="36"/>
+        <v>128</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="37"/>
+        <v>128</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="38"/>
+        <v>128</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>128</v>
-      </c>
-      <c r="T27">
-        <f>A27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="U27">
-        <f>B27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="V27">
-        <f>C27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="W27">
-        <f>D27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="X27">
-        <f>E27*$S27</f>
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <f>F27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="Z27">
-        <f>G27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="26"/>
-        <v>128</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="27"/>
-        <v>128</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="28"/>
-        <v>128</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="29"/>
-        <v>128</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="30"/>
-        <v>128</v>
-      </c>
-      <c r="AF27">
-        <f>M27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="AG27">
-        <f>N27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="AH27">
-        <f>O27*$S27</f>
-        <v>128</v>
-      </c>
-      <c r="AI27">
-        <f>P27*$S27</f>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="W28">
+        <v>64</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ref="X28:X35" si="42">A28*$W28</f>
+        <v>64</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" ref="Y28:Y42" si="43">B28*$W28</f>
+        <v>64</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" ref="Z28:Z42" si="44">C28*$W28</f>
+        <v>64</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ref="AA28:AA42" si="45">D28*$W28</f>
+        <v>64</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" ref="AB28:AB42" si="46">E28*$W28</f>
+        <v>64</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" ref="AC28:AC42" si="47">F28*$W28</f>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" ref="AD28:AD42" si="48">G28*$W28</f>
+        <v>64</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="31"/>
+        <v>64</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="32"/>
+        <v>64</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="34"/>
+        <v>64</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="35"/>
+        <v>64</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="36"/>
+        <v>64</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="37"/>
+        <v>64</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="38"/>
+        <v>64</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <v>64</v>
-      </c>
-      <c r="T28">
-        <f t="shared" ref="T28:T35" si="31">A28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="U28">
-        <f>B28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="V28">
-        <f>C28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="W28">
-        <f>D28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="X28">
-        <f>E28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="Y28">
-        <f>F28*$S28</f>
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <f>G28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="26"/>
-        <v>64</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="27"/>
-        <v>64</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="28"/>
-        <v>64</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="29"/>
-        <v>64</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="30"/>
-        <v>64</v>
-      </c>
-      <c r="AF28">
-        <f>M28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="AG28">
-        <f>N28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="AH28">
-        <f>O28*$S28</f>
-        <v>64</v>
-      </c>
-      <c r="AI28">
-        <f>P28*$S28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2573,74 +2773,82 @@
         <v>1</v>
       </c>
       <c r="S29">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="T29">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="W29">
+        <v>32</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="42"/>
+        <v>32</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="43"/>
+        <v>32</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="44"/>
+        <v>32</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="46"/>
+        <v>32</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="U29">
-        <f>B29*$S29</f>
+      <c r="AF29">
+        <f t="shared" si="32"/>
         <v>32</v>
       </c>
-      <c r="V29">
-        <f>C29*$S29</f>
+      <c r="AG29">
+        <f t="shared" si="33"/>
         <v>32</v>
       </c>
-      <c r="W29">
-        <f>D29*$S29</f>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f>E29*$S29</f>
+      <c r="AH29">
+        <f t="shared" si="34"/>
         <v>32</v>
       </c>
-      <c r="Y29">
-        <f>F29*$S29</f>
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <f>G29*$S29</f>
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="26"/>
+      <c r="AI29">
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
-      <c r="AB29">
-        <f t="shared" si="27"/>
+      <c r="AJ29">
+        <f t="shared" si="36"/>
         <v>32</v>
       </c>
-      <c r="AC29">
-        <f t="shared" si="28"/>
+      <c r="AK29">
+        <f t="shared" si="37"/>
         <v>32</v>
       </c>
-      <c r="AD29">
-        <f t="shared" si="29"/>
+      <c r="AL29">
+        <f t="shared" si="38"/>
         <v>32</v>
       </c>
-      <c r="AE29">
-        <f t="shared" si="30"/>
-        <v>32</v>
-      </c>
-      <c r="AF29">
-        <f>M29*$S29</f>
-        <v>32</v>
-      </c>
-      <c r="AG29">
-        <f>N29*$S29</f>
-        <v>32</v>
-      </c>
-      <c r="AH29">
-        <f>O29*$S29</f>
-        <v>32</v>
-      </c>
-      <c r="AI29">
-        <f>P29*$S29</f>
+      <c r="AM29">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2687,74 +2895,82 @@
         <v>1</v>
       </c>
       <c r="S30">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="T30">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="W30">
+        <v>16</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="45"/>
+        <v>16</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="46"/>
+        <v>16</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="47"/>
+        <v>16</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U30">
-        <f>B30*$S30</f>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f>C30*$S30</f>
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <f>D30*$S30</f>
+      <c r="AF30">
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
-      <c r="X30">
-        <f>E30*$S30</f>
+      <c r="AG30">
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
-      <c r="Y30">
-        <f>F30*$S30</f>
+      <c r="AH30">
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
-      <c r="Z30">
-        <f>G30*$S30</f>
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="27"/>
+      <c r="AI30">
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
-      <c r="AC30">
-        <f t="shared" si="28"/>
+      <c r="AJ30">
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
-      <c r="AD30">
-        <f t="shared" si="29"/>
+      <c r="AK30">
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
-      <c r="AE30">
-        <f t="shared" si="30"/>
+      <c r="AL30">
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
-      <c r="AF30">
-        <f>M30*$S30</f>
-        <v>16</v>
-      </c>
-      <c r="AG30">
-        <f>N30*$S30</f>
-        <v>16</v>
-      </c>
-      <c r="AH30">
-        <f>O30*$S30</f>
-        <v>16</v>
-      </c>
-      <c r="AI30">
-        <f>P30*$S30</f>
+      <c r="AM30">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2801,74 +3017,82 @@
         <v>1</v>
       </c>
       <c r="S31">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="T31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="W31">
+        <v>8</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="44"/>
+        <v>8</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f>B31*$S31</f>
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <f>C31*$S31</f>
         <v>8</v>
       </c>
-      <c r="W31">
-        <f>D31*$S31</f>
+      <c r="AF31">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
-      <c r="X31">
-        <f>E31*$S31</f>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f>F31*$S31</f>
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <f>G31*$S31</f>
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <f>M31*$S31</f>
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <f>N31*$S31</f>
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <f>O31*$S31</f>
-        <v>8</v>
-      </c>
-      <c r="AI31">
-        <f>P31*$S31</f>
+      <c r="AM31">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2915,74 +3139,82 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="AE32">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f>B32*$S32</f>
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <f>C32*$S32</f>
         <v>4</v>
       </c>
-      <c r="W32">
-        <f>D32*$S32</f>
+      <c r="AF32">
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="X32">
-        <f>E32*$S32</f>
-        <v>4</v>
-      </c>
-      <c r="Y32">
-        <f>F32*$S32</f>
-        <v>4</v>
-      </c>
-      <c r="Z32">
-        <f>G32*$S32</f>
-        <v>4</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <f>M32*$S32</f>
-        <v>0</v>
-      </c>
       <c r="AG32">
-        <f>N32*$S32</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH32">
-        <f>O32*$S32</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI32">
-        <f>P32*$S32</f>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3029,74 +3261,82 @@
         <v>1</v>
       </c>
       <c r="S33">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="AE33">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f>B33*$S33</f>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f>C33*$S33</f>
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <f>D33*$S33</f>
-        <v>2</v>
-      </c>
-      <c r="X33">
-        <f>E33*$S33</f>
-        <v>2</v>
-      </c>
-      <c r="Y33">
-        <f>F33*$S33</f>
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <f>G33*$S33</f>
-        <v>2</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF33">
-        <f>M33*$S33</f>
-        <v>2</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <f>N33*$S33</f>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="AH33">
-        <f>O33*$S33</f>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AI33">
-        <f>P33*$S33</f>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3146,74 +3386,86 @@
         <v>9</v>
       </c>
       <c r="S34">
+        <f>S42</f>
         <v>1</v>
       </c>
       <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" ref="U34" si="49">"0x"&amp;DEC2HEX(SUM(T27:T34),2)</f>
+        <v>0xFA</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="AE34">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="U34">
-        <f>B34*$S34</f>
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <f>C34*$S34</f>
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <f>D34*$S34</f>
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <f>E34*$S34</f>
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <f>F34*$S34</f>
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <f>G34*$S34</f>
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
       <c r="AF34">
-        <f>M34*$S34</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG34">
-        <f>N34*$S34</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH34">
-        <f>O34*$S34</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <f>P34*$S34</f>
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3266,71 +3518,78 @@
         <v>128</v>
       </c>
       <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>128</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U35">
-        <f>B35*$S35</f>
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <f>C35*$S35</f>
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <f>D35*$S35</f>
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <f>E35*$S35</f>
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <f>F35*$S35</f>
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <f>G35*$S35</f>
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
       <c r="AF35">
-        <f>M35*$S35</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG35">
-        <f>N35*$S35</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH35">
-        <f>O35*$S35</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI35">
-        <f>P35*$S35</f>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3383,71 +3642,78 @@
         <v>64</v>
       </c>
       <c r="T36">
-        <f>A36*$S36</f>
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <f>B36*$S36</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>64</v>
       </c>
-      <c r="V36">
-        <f>C36*$S36</f>
+      <c r="X36">
+        <f>A36*$W36</f>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="43"/>
         <v>64</v>
       </c>
-      <c r="W36">
-        <f>D36*$S36</f>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f>E36*$S36</f>
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <f>F36*$S36</f>
-        <v>0</v>
-      </c>
       <c r="Z36">
-        <f>G36*$S36</f>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>64</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF36">
-        <f>M36*$S36</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG36">
-        <f>N36*$S36</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH36">
-        <f>O36*$S36</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI36">
-        <f>P36*$S36</f>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3497,71 +3763,78 @@
         <v>32</v>
       </c>
       <c r="T37">
-        <f t="shared" ref="T37:T42" si="32">A37*$S37</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="U37">
-        <f>B37*$S37</f>
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f>C37*$S37</f>
-        <v>0</v>
-      </c>
       <c r="W37">
-        <f>D37*$S37</f>
         <v>32</v>
       </c>
       <c r="X37">
-        <f>E37*$S37</f>
+        <f t="shared" ref="X37:X42" si="50">A37*$W37</f>
         <v>32</v>
       </c>
       <c r="Y37">
-        <f>F37*$S37</f>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="45"/>
         <v>32</v>
       </c>
-      <c r="Z37">
-        <f>G37*$S37</f>
+      <c r="AB37">
+        <f t="shared" si="46"/>
         <v>32</v>
       </c>
-      <c r="AA37">
-        <f t="shared" si="26"/>
+      <c r="AC37">
+        <f t="shared" si="47"/>
         <v>32</v>
       </c>
-      <c r="AB37">
-        <f t="shared" si="27"/>
+      <c r="AD37">
+        <f t="shared" si="48"/>
         <v>32</v>
       </c>
-      <c r="AC37">
-        <f t="shared" si="28"/>
+      <c r="AE37">
+        <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="AD37">
-        <f t="shared" si="29"/>
+      <c r="AF37">
+        <f t="shared" si="32"/>
         <v>32</v>
       </c>
-      <c r="AE37">
-        <f t="shared" si="30"/>
+      <c r="AG37">
+        <f t="shared" si="33"/>
         <v>32</v>
       </c>
-      <c r="AF37">
-        <f>M37*$S37</f>
+      <c r="AH37">
+        <f t="shared" si="34"/>
         <v>32</v>
       </c>
-      <c r="AG37">
-        <f>N37*$S37</f>
+      <c r="AI37">
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
-      <c r="AH37">
-        <f>O37*$S37</f>
+      <c r="AJ37">
+        <f t="shared" si="36"/>
         <v>32</v>
       </c>
-      <c r="AI37">
-        <f>P37*$S37</f>
+      <c r="AK37">
+        <f t="shared" si="37"/>
+        <v>32</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3611,71 +3884,78 @@
         <v>16</v>
       </c>
       <c r="T38">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="W38">
+        <v>16</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="45"/>
+        <v>16</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="46"/>
+        <v>16</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="47"/>
+        <v>16</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="48"/>
+        <v>16</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="31"/>
+        <v>16</v>
+      </c>
+      <c r="AF38">
         <f t="shared" si="32"/>
         <v>16</v>
       </c>
-      <c r="U38">
-        <f>B38*$S38</f>
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <f>C38*$S38</f>
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <f>D38*$S38</f>
+      <c r="AG38">
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
-      <c r="X38">
-        <f>E38*$S38</f>
+      <c r="AH38">
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
-      <c r="Y38">
-        <f>F38*$S38</f>
+      <c r="AI38">
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
-      <c r="Z38">
-        <f>G38*$S38</f>
+      <c r="AJ38">
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
-      <c r="AA38">
-        <f t="shared" si="26"/>
+      <c r="AK38">
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
-      <c r="AB38">
-        <f t="shared" si="27"/>
+      <c r="AL38">
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
-      <c r="AC38">
-        <f t="shared" si="28"/>
-        <v>16</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="29"/>
-        <v>16</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="30"/>
-        <v>16</v>
-      </c>
-      <c r="AF38">
-        <f>M38*$S38</f>
-        <v>16</v>
-      </c>
-      <c r="AG38">
-        <f>N38*$S38</f>
-        <v>16</v>
-      </c>
-      <c r="AH38">
-        <f>O38*$S38</f>
-        <v>16</v>
-      </c>
-      <c r="AI38">
-        <f>P38*$S38</f>
+      <c r="AM38">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3725,71 +4005,78 @@
         <v>8</v>
       </c>
       <c r="T39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>8</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="48"/>
+        <v>8</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="AF39">
         <f t="shared" si="32"/>
-        <v>8</v>
-      </c>
-      <c r="U39">
-        <f>B39*$S39</f>
-        <v>8</v>
-      </c>
-      <c r="V39">
-        <f>C39*$S39</f>
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <f>D39*$S39</f>
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <f>E39*$S39</f>
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <f>F39*$S39</f>
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <f>G39*$S39</f>
-        <v>8</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <f>M39*$S39</f>
         <v>0</v>
       </c>
       <c r="AG39">
-        <f>N39*$S39</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH39">
-        <f>O39*$S39</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI39">
-        <f>P39*$S39</f>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3839,71 +4126,78 @@
         <v>4</v>
       </c>
       <c r="T40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>4</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="AF40">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="U40">
-        <f>B40*$S40</f>
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <f>C40*$S40</f>
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <f>D40*$S40</f>
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <f>E40*$S40</f>
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <f>F40*$S40</f>
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <f>G40*$S40</f>
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <f t="shared" si="26"/>
+      <c r="AG40">
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
-      <c r="AB40">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <f>M40*$S40</f>
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <f>N40*$S40</f>
-        <v>0</v>
-      </c>
       <c r="AH40">
-        <f>O40*$S40</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI40">
-        <f>P40*$S40</f>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3953,71 +4247,78 @@
         <v>2</v>
       </c>
       <c r="T41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="AF41">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <f>B41*$S41</f>
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <f>C41*$S41</f>
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <f>D41*$S41</f>
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <f>E41*$S41</f>
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <f>F41*$S41</f>
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <f>G41*$S41</f>
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AF41">
-        <f>M41*$S41</f>
         <v>2</v>
       </c>
       <c r="AG41">
-        <f>N41*$S41</f>
-        <v>2</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <f>O41*$S41</f>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AI41">
-        <f>P41*$S41</f>
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -4070,134 +4371,151 @@
         <v>1</v>
       </c>
       <c r="T42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U42" t="str">
+        <f>"0x"&amp;DEC2HEX(SUM(T35:T42),2)</f>
+        <v>0x32</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AF42">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <f>B42*$S42</f>
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <f>C42*$S42</f>
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <f>D42*$S42</f>
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <f>E42*$S42</f>
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <f>F42*$S42</f>
-        <v>1</v>
-      </c>
-      <c r="Z42">
-        <f>G42*$S42</f>
-        <v>1</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <f>M42*$S42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42">
-        <f>N42*$S42</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="AH42">
-        <f>O42*$S42</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI42">
-        <f>P42*$S42</f>
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="T43">
-        <f>SUM(T36:T42)</f>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <f>SUM(X36:X42)</f>
         <v>60</v>
       </c>
-      <c r="U43">
-        <f t="shared" ref="U43:W43" si="33">SUM(U36:U42)</f>
+      <c r="Y43">
+        <f t="shared" ref="Y43:AA43" si="51">SUM(Y36:Y42)</f>
         <v>72</v>
       </c>
-      <c r="V43">
-        <f t="shared" si="33"/>
+      <c r="Z43">
+        <f t="shared" si="51"/>
         <v>66</v>
       </c>
-      <c r="W43">
-        <f t="shared" si="33"/>
+      <c r="AA43">
+        <f t="shared" si="51"/>
         <v>49</v>
       </c>
-      <c r="X43">
-        <f t="shared" ref="X43" si="34">SUM(X36:X42)</f>
+      <c r="AB43">
+        <f t="shared" ref="AB43" si="52">SUM(AB36:AB42)</f>
         <v>48</v>
       </c>
-      <c r="Y43">
-        <f t="shared" ref="Y43" si="35">SUM(Y36:Y42)</f>
+      <c r="AC43">
+        <f t="shared" ref="AC43" si="53">SUM(AC36:AC42)</f>
         <v>49</v>
       </c>
-      <c r="Z43">
-        <f t="shared" ref="Z43" si="36">SUM(Z36:Z42)</f>
+      <c r="AD43">
+        <f t="shared" ref="AD43" si="54">SUM(AD36:AD42)</f>
         <v>57</v>
       </c>
-      <c r="AA43">
-        <f t="shared" ref="AA43" si="37">SUM(AA36:AA42)</f>
+      <c r="AE43">
+        <f t="shared" ref="AE43" si="55">SUM(AE36:AE42)</f>
         <v>62</v>
       </c>
-      <c r="AB43">
-        <f t="shared" ref="AB43" si="38">SUM(AB36:AB42)</f>
+      <c r="AF43">
+        <f t="shared" ref="AF43" si="56">SUM(AF36:AF42)</f>
         <v>55</v>
       </c>
-      <c r="AC43">
-        <f t="shared" ref="AC43" si="39">SUM(AC36:AC42)</f>
+      <c r="AG43">
+        <f t="shared" ref="AG43" si="57">SUM(AG36:AG42)</f>
         <v>53</v>
       </c>
-      <c r="AD43">
-        <f t="shared" ref="AD43" si="40">SUM(AD36:AD42)</f>
+      <c r="AH43">
+        <f t="shared" ref="AH43" si="58">SUM(AH36:AH42)</f>
         <v>50</v>
       </c>
-      <c r="AE43">
-        <f t="shared" ref="AE43" si="41">SUM(AE36:AE42)</f>
+      <c r="AI43">
+        <f t="shared" ref="AI43" si="59">SUM(AI36:AI42)</f>
         <v>51</v>
       </c>
-      <c r="AF43">
-        <f t="shared" ref="AF43:AI43" si="42">SUM(AF36:AF42)</f>
+      <c r="AJ43">
+        <f t="shared" ref="AJ43:AM43" si="60">SUM(AJ36:AJ42)</f>
         <v>50</v>
       </c>
-      <c r="AG43">
-        <f t="shared" si="42"/>
+      <c r="AK43">
+        <f t="shared" si="60"/>
         <v>50</v>
       </c>
-      <c r="AH43">
-        <f t="shared" si="42"/>
+      <c r="AL43">
+        <f t="shared" si="60"/>
         <v>50</v>
       </c>
-      <c r="AI43">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="AM43">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U45" t="str">
+        <f>U42&amp;","&amp;U34&amp;","&amp;U26&amp;","&amp;U18&amp;","&amp;U10</f>
+        <v>0x32,0xFA,0x60,0x0D,0x09</v>
       </c>
     </row>
   </sheetData>
